--- a/data/pca/factorExposure/factorExposure_2010-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-21.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003598763664453877</v>
+        <v>0.01695221916682998</v>
       </c>
       <c r="C2">
-        <v>-0.0166583402172138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001038453947071562</v>
+      </c>
+      <c r="D2">
+        <v>0.006344481087478287</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003155678224821296</v>
+      </c>
+      <c r="F2">
+        <v>0.01025922038862401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02590304621437534</v>
+        <v>0.09377578584401686</v>
       </c>
       <c r="C4">
-        <v>-0.1234768234044851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01599665672551383</v>
+      </c>
+      <c r="D4">
+        <v>0.08223509404823531</v>
+      </c>
+      <c r="E4">
+        <v>0.02833624436762333</v>
+      </c>
+      <c r="F4">
+        <v>-0.03095833142282578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03486119700547546</v>
+        <v>0.1568538042655233</v>
       </c>
       <c r="C6">
-        <v>-0.1098517475245458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02529987224652541</v>
+      </c>
+      <c r="D6">
+        <v>-0.02363664345457958</v>
+      </c>
+      <c r="E6">
+        <v>0.00849577540837332</v>
+      </c>
+      <c r="F6">
+        <v>-0.04663048819810618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.007990720630716085</v>
+        <v>0.06048232257404123</v>
       </c>
       <c r="C7">
-        <v>-0.07238713730522324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007388923431717162</v>
+      </c>
+      <c r="D7">
+        <v>0.05211136887152826</v>
+      </c>
+      <c r="E7">
+        <v>0.01064198576893516</v>
+      </c>
+      <c r="F7">
+        <v>-0.04295089917109547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002924068756752976</v>
+        <v>0.05831495006932712</v>
       </c>
       <c r="C8">
-        <v>-0.06260931062011175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01326359487708099</v>
+      </c>
+      <c r="D8">
+        <v>0.03192878505355304</v>
+      </c>
+      <c r="E8">
+        <v>0.01734582905710568</v>
+      </c>
+      <c r="F8">
+        <v>0.02762747135285811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02233085155651102</v>
+        <v>0.07166533692434109</v>
       </c>
       <c r="C9">
-        <v>-0.09925047164893515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01180380428412269</v>
+      </c>
+      <c r="D9">
+        <v>0.08434398046645394</v>
+      </c>
+      <c r="E9">
+        <v>0.02331612056214254</v>
+      </c>
+      <c r="F9">
+        <v>-0.04676226684480219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.008305394840108282</v>
+        <v>0.09398034292575325</v>
       </c>
       <c r="C10">
-        <v>-0.02477391357254208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01880306205986199</v>
+      </c>
+      <c r="D10">
+        <v>-0.1708153511614615</v>
+      </c>
+      <c r="E10">
+        <v>-0.03734406685614697</v>
+      </c>
+      <c r="F10">
+        <v>0.05640250146273635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02592758376378195</v>
+        <v>0.08777054510866773</v>
       </c>
       <c r="C11">
-        <v>-0.1090949636546302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01145394086394175</v>
+      </c>
+      <c r="D11">
+        <v>0.1161525622153044</v>
+      </c>
+      <c r="E11">
+        <v>0.04753755249580002</v>
+      </c>
+      <c r="F11">
+        <v>-0.0200659140519252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02307936696000833</v>
+        <v>0.09260968033954983</v>
       </c>
       <c r="C12">
-        <v>-0.1181770959905569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008875281551156904</v>
+      </c>
+      <c r="D12">
+        <v>0.1290224446678933</v>
+      </c>
+      <c r="E12">
+        <v>0.04714866249080938</v>
+      </c>
+      <c r="F12">
+        <v>-0.02322068429352654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.006813994743266681</v>
+        <v>0.04283689040721039</v>
       </c>
       <c r="C13">
-        <v>-0.03709386039258505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.00384773056217282</v>
+      </c>
+      <c r="D13">
+        <v>0.04912213280506818</v>
+      </c>
+      <c r="E13">
+        <v>-0.01031574319489296</v>
+      </c>
+      <c r="F13">
+        <v>-0.002578057943461446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01509709149836094</v>
+        <v>0.02272496498838966</v>
       </c>
       <c r="C14">
-        <v>-0.02493224057756239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01406810151270475</v>
+      </c>
+      <c r="D14">
+        <v>0.03382925446122084</v>
+      </c>
+      <c r="E14">
+        <v>0.01756090087626156</v>
+      </c>
+      <c r="F14">
+        <v>-0.01414108839618703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01007167740057139</v>
+        <v>0.03157564557988885</v>
       </c>
       <c r="C15">
-        <v>-0.02895364505393631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005182961342025482</v>
+      </c>
+      <c r="D15">
+        <v>0.04497714897299616</v>
+      </c>
+      <c r="E15">
+        <v>0.006923758117081195</v>
+      </c>
+      <c r="F15">
+        <v>-0.02185962735822191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01515499013792948</v>
+        <v>0.07324209324746986</v>
       </c>
       <c r="C16">
-        <v>-0.1135124665409203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002390862931926727</v>
+      </c>
+      <c r="D16">
+        <v>0.1259734384194832</v>
+      </c>
+      <c r="E16">
+        <v>0.06262464828522316</v>
+      </c>
+      <c r="F16">
+        <v>-0.02325897460277182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0275387823911397</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003384537256024433</v>
+      </c>
+      <c r="D18">
+        <v>0.02108234184982365</v>
+      </c>
+      <c r="E18">
+        <v>-0.00645509686647874</v>
+      </c>
+      <c r="F18">
+        <v>0.008101478445749759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.00998674212826412</v>
+        <v>0.06051482732654055</v>
       </c>
       <c r="C20">
-        <v>-0.069304359738138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0007549645622458356</v>
+      </c>
+      <c r="D20">
+        <v>0.07675702123371449</v>
+      </c>
+      <c r="E20">
+        <v>0.05632397787440754</v>
+      </c>
+      <c r="F20">
+        <v>-0.02199911679493052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01155732862048017</v>
+        <v>0.03927575386072074</v>
       </c>
       <c r="C21">
-        <v>-0.01912515774423426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006532266254769039</v>
+      </c>
+      <c r="D21">
+        <v>0.03701111829033794</v>
+      </c>
+      <c r="E21">
+        <v>-0.005709954893555491</v>
+      </c>
+      <c r="F21">
+        <v>0.02668729469987156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003888638739331052</v>
+        <v>0.0447388596753896</v>
       </c>
       <c r="C22">
-        <v>-0.02941064057096696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0008702451444372551</v>
+      </c>
+      <c r="D22">
+        <v>0.002269388356022375</v>
+      </c>
+      <c r="E22">
+        <v>0.02879438509800724</v>
+      </c>
+      <c r="F22">
+        <v>0.03289056563879741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.00387797567068815</v>
+        <v>0.04472385605892683</v>
       </c>
       <c r="C23">
-        <v>-0.02934067109487936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0008659940525052526</v>
+      </c>
+      <c r="D23">
+        <v>0.002274227796123782</v>
+      </c>
+      <c r="E23">
+        <v>0.02899626235824689</v>
+      </c>
+      <c r="F23">
+        <v>0.0328551216238469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01552510530885841</v>
+        <v>0.07996878402734686</v>
       </c>
       <c r="C24">
-        <v>-0.1150369240725184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.003122604306241133</v>
+      </c>
+      <c r="D24">
+        <v>0.1197721174754955</v>
+      </c>
+      <c r="E24">
+        <v>0.05078807418662844</v>
+      </c>
+      <c r="F24">
+        <v>-0.02397376440850665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0206522232165304</v>
+        <v>0.08508305132984344</v>
       </c>
       <c r="C25">
-        <v>-0.1198943196614559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005294722706830138</v>
+      </c>
+      <c r="D25">
+        <v>0.108756356661643</v>
+      </c>
+      <c r="E25">
+        <v>0.03368244601790946</v>
+      </c>
+      <c r="F25">
+        <v>-0.02523933749204428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02157695912456085</v>
+        <v>0.05673300920707307</v>
       </c>
       <c r="C26">
-        <v>-0.04880947143492661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01454815901149705</v>
+      </c>
+      <c r="D26">
+        <v>0.04176207660675749</v>
+      </c>
+      <c r="E26">
+        <v>0.02809640246098016</v>
+      </c>
+      <c r="F26">
+        <v>0.01086857667934703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.002252532899506561</v>
+        <v>0.1410534832196037</v>
       </c>
       <c r="C28">
-        <v>-0.02003217233235821</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01811757318030295</v>
+      </c>
+      <c r="D28">
+        <v>-0.2644392726460851</v>
+      </c>
+      <c r="E28">
+        <v>-0.06971183771172158</v>
+      </c>
+      <c r="F28">
+        <v>-0.006738146966156855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01218307343790621</v>
+        <v>0.02695323864434362</v>
       </c>
       <c r="C29">
-        <v>-0.03074891781600624</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0082004792604681</v>
+      </c>
+      <c r="D29">
+        <v>0.03344277717556211</v>
+      </c>
+      <c r="E29">
+        <v>0.01166034222362898</v>
+      </c>
+      <c r="F29">
+        <v>0.01076146894363201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01385863137583771</v>
+        <v>0.06203957029180273</v>
       </c>
       <c r="C30">
-        <v>-0.1272551646193696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004622803932593106</v>
+      </c>
+      <c r="D30">
+        <v>0.0865650877782016</v>
+      </c>
+      <c r="E30">
+        <v>0.02060823765464228</v>
+      </c>
+      <c r="F30">
+        <v>-0.08130465147631548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02134149650865812</v>
+        <v>0.04922792315246688</v>
       </c>
       <c r="C31">
-        <v>-0.03638658588383232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01535199191907325</v>
+      </c>
+      <c r="D31">
+        <v>0.02497471832349562</v>
+      </c>
+      <c r="E31">
+        <v>0.02728283694877178</v>
+      </c>
+      <c r="F31">
+        <v>0.003080761996575652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006075912422976329</v>
+        <v>0.04933394673673758</v>
       </c>
       <c r="C32">
-        <v>-0.06083760579313163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001234404485794034</v>
+      </c>
+      <c r="D32">
+        <v>0.03677096659581313</v>
+      </c>
+      <c r="E32">
+        <v>0.03158039597084092</v>
+      </c>
+      <c r="F32">
+        <v>-0.0005218399557322695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02065744510106514</v>
+        <v>0.08991176606055828</v>
       </c>
       <c r="C33">
-        <v>-0.1188750495869066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.00880466207249009</v>
+      </c>
+      <c r="D33">
+        <v>0.0973580258937909</v>
+      </c>
+      <c r="E33">
+        <v>0.04490759327578732</v>
+      </c>
+      <c r="F33">
+        <v>-0.03353122757159824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02327084886355099</v>
+        <v>0.06801173237375049</v>
       </c>
       <c r="C34">
-        <v>-0.1017287136904168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.0118029364373571</v>
+      </c>
+      <c r="D34">
+        <v>0.105277000081601</v>
+      </c>
+      <c r="E34">
+        <v>0.0351333626041874</v>
+      </c>
+      <c r="F34">
+        <v>-0.03219196713615489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002697866618858828</v>
+        <v>0.02369893321331798</v>
       </c>
       <c r="C35">
-        <v>-0.01223993749908638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002422296030158548</v>
+      </c>
+      <c r="D35">
+        <v>0.01245550302301237</v>
+      </c>
+      <c r="E35">
+        <v>0.01158621720321718</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006899650365333578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009823657344264219</v>
+        <v>0.02568800656878201</v>
       </c>
       <c r="C36">
-        <v>-0.0301460973817426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007315149701137144</v>
+      </c>
+      <c r="D36">
+        <v>0.03943106611842008</v>
+      </c>
+      <c r="E36">
+        <v>0.01575214052767277</v>
+      </c>
+      <c r="F36">
+        <v>-0.01437091488658297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005948145330174621</v>
+        <v>0.001484409397225537</v>
       </c>
       <c r="C38">
-        <v>-0.005051072792734618</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002314910179686114</v>
+      </c>
+      <c r="D38">
+        <v>0.0005381758987325264</v>
+      </c>
+      <c r="E38">
+        <v>0.001022443953702054</v>
+      </c>
+      <c r="F38">
+        <v>0.0006531841138044897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03649637241537292</v>
+        <v>0.1070424247568865</v>
       </c>
       <c r="C39">
-        <v>-0.1745812547757004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01698058729098844</v>
+      </c>
+      <c r="D39">
+        <v>0.1526474788808886</v>
+      </c>
+      <c r="E39">
+        <v>0.05991731883140453</v>
+      </c>
+      <c r="F39">
+        <v>-0.02854842630571802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009403465499584181</v>
+        <v>0.03942956645427394</v>
       </c>
       <c r="C40">
-        <v>-0.0104527942953261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007512852930739821</v>
+      </c>
+      <c r="D40">
+        <v>0.03176789528201014</v>
+      </c>
+      <c r="E40">
+        <v>0.002692410871317971</v>
+      </c>
+      <c r="F40">
+        <v>0.01806003739995105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01117944987644711</v>
+        <v>0.02652320671705776</v>
       </c>
       <c r="C41">
-        <v>-0.02285536833507584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006555887755192189</v>
+      </c>
+      <c r="D41">
+        <v>0.01145776584916176</v>
+      </c>
+      <c r="E41">
+        <v>0.01265214598583557</v>
+      </c>
+      <c r="F41">
+        <v>0.006996405741370934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01150435258556796</v>
+        <v>0.03973277398939924</v>
       </c>
       <c r="C43">
-        <v>-0.0249411553615655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006803682826816275</v>
+      </c>
+      <c r="D43">
+        <v>0.02085357605546471</v>
+      </c>
+      <c r="E43">
+        <v>0.02513564763291239</v>
+      </c>
+      <c r="F43">
+        <v>0.01235399372425423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02949686986756828</v>
+        <v>0.07753922141662253</v>
       </c>
       <c r="C44">
-        <v>-0.1354611516689913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02115410735295001</v>
+      </c>
+      <c r="D44">
+        <v>0.09771431111395701</v>
+      </c>
+      <c r="E44">
+        <v>0.06646334308748458</v>
+      </c>
+      <c r="F44">
+        <v>-0.1512138831941276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005753379332093782</v>
+        <v>0.02419801207727159</v>
       </c>
       <c r="C46">
-        <v>-0.008404215189304502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003673184223054739</v>
+      </c>
+      <c r="D46">
+        <v>0.01295126411356871</v>
+      </c>
+      <c r="E46">
+        <v>0.02234904577427551</v>
+      </c>
+      <c r="F46">
+        <v>0.002983273872068772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0117380247641861</v>
+        <v>0.0507079814847804</v>
       </c>
       <c r="C47">
-        <v>-0.04285438804220012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003649035866607199</v>
+      </c>
+      <c r="D47">
+        <v>0.01247143213912429</v>
+      </c>
+      <c r="E47">
+        <v>0.02296222647578193</v>
+      </c>
+      <c r="F47">
+        <v>0.03353980167674184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01122098522193322</v>
+        <v>0.048586283803722</v>
       </c>
       <c r="C48">
-        <v>-0.0480391889228276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002624642445285165</v>
+      </c>
+      <c r="D48">
+        <v>0.05068057759371772</v>
+      </c>
+      <c r="E48">
+        <v>-0.006294235978615212</v>
+      </c>
+      <c r="F48">
+        <v>-0.008332555353013497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03215158532576688</v>
+        <v>0.2021436590347238</v>
       </c>
       <c r="C49">
-        <v>-0.2057651211940518</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01883207087050549</v>
+      </c>
+      <c r="D49">
+        <v>-0.01206627086856914</v>
+      </c>
+      <c r="E49">
+        <v>0.03064117451301237</v>
+      </c>
+      <c r="F49">
+        <v>-0.03813765957455918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01771407960655807</v>
+        <v>0.04940633679233549</v>
       </c>
       <c r="C50">
-        <v>-0.04287689899686617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01140263519181168</v>
+      </c>
+      <c r="D50">
+        <v>0.0242070227147792</v>
+      </c>
+      <c r="E50">
+        <v>0.02959440818722823</v>
+      </c>
+      <c r="F50">
+        <v>-0.007444985389295177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0005445886753825996</v>
+        <v>0.001476339070649177</v>
       </c>
       <c r="C51">
-        <v>-0.004565480037918969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003899288562710389</v>
+      </c>
+      <c r="D51">
+        <v>-0.001338004701361252</v>
+      </c>
+      <c r="E51">
+        <v>0.0002234475626598886</v>
+      </c>
+      <c r="F51">
+        <v>-0.003093083654496358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02658533110064228</v>
+        <v>0.1463988158092313</v>
       </c>
       <c r="C52">
-        <v>-0.1474946694500647</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01505012161147655</v>
+      </c>
+      <c r="D52">
+        <v>0.04676535453538493</v>
+      </c>
+      <c r="E52">
+        <v>0.02089859064340621</v>
+      </c>
+      <c r="F52">
+        <v>-0.04490773862914506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02453686916355749</v>
+        <v>0.1739576942076238</v>
       </c>
       <c r="C53">
-        <v>-0.159870930176315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01836307194519055</v>
+      </c>
+      <c r="D53">
+        <v>0.005580719195488334</v>
+      </c>
+      <c r="E53">
+        <v>0.03140414942990637</v>
+      </c>
+      <c r="F53">
+        <v>-0.07637265862802349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01445568724534673</v>
+        <v>0.02151782235105923</v>
       </c>
       <c r="C54">
-        <v>-0.0477357039939315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01247420837936372</v>
+      </c>
+      <c r="D54">
+        <v>0.03283201944919843</v>
+      </c>
+      <c r="E54">
+        <v>0.01698278516322685</v>
+      </c>
+      <c r="F54">
+        <v>0.003471364517998559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02235894959826439</v>
+        <v>0.1141881844872566</v>
       </c>
       <c r="C55">
-        <v>-0.08860944864995199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01639482953165658</v>
+      </c>
+      <c r="D55">
+        <v>0.009417134899390023</v>
+      </c>
+      <c r="E55">
+        <v>0.02795965141005217</v>
+      </c>
+      <c r="F55">
+        <v>-0.04931756556943878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02794924761517738</v>
+        <v>0.1783442490050215</v>
       </c>
       <c r="C56">
-        <v>-0.1615256973158906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01569480666490094</v>
+      </c>
+      <c r="D56">
+        <v>0.00206135376625141</v>
+      </c>
+      <c r="E56">
+        <v>0.03657891071488603</v>
+      </c>
+      <c r="F56">
+        <v>-0.05533675331468826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009544181211729485</v>
+        <v>0.0462257915556885</v>
       </c>
       <c r="C58">
-        <v>-0.04557545097576438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001326714118943192</v>
+      </c>
+      <c r="D58">
+        <v>0.06711339414123495</v>
+      </c>
+      <c r="E58">
+        <v>0.02755584200150348</v>
+      </c>
+      <c r="F58">
+        <v>0.03947323366264358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009830194510647641</v>
+        <v>0.169770223060879</v>
       </c>
       <c r="C59">
-        <v>-0.07634039679581846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01883258664675907</v>
+      </c>
+      <c r="D59">
+        <v>-0.2216623939621268</v>
+      </c>
+      <c r="E59">
+        <v>-0.04594049916071389</v>
+      </c>
+      <c r="F59">
+        <v>0.03332538905299936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01930181522387011</v>
+        <v>0.2339733939280376</v>
       </c>
       <c r="C60">
-        <v>-0.2832793245163532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002805492223097838</v>
+      </c>
+      <c r="D60">
+        <v>0.03997536551566743</v>
+      </c>
+      <c r="E60">
+        <v>0.01097407629716156</v>
+      </c>
+      <c r="F60">
+        <v>0.001016107051458762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02687793094356596</v>
+        <v>0.08315579840302878</v>
       </c>
       <c r="C61">
-        <v>-0.1327752897376288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01270712632736363</v>
+      </c>
+      <c r="D61">
+        <v>0.1160278936821913</v>
+      </c>
+      <c r="E61">
+        <v>0.03984808712248356</v>
+      </c>
+      <c r="F61">
+        <v>-0.01221034718297483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03182007375050989</v>
+        <v>0.1701704206977442</v>
       </c>
       <c r="C62">
-        <v>-0.1672209260913039</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0193641402336118</v>
+      </c>
+      <c r="D62">
+        <v>0.006957162452023277</v>
+      </c>
+      <c r="E62">
+        <v>0.03528899280985827</v>
+      </c>
+      <c r="F62">
+        <v>-0.03696804294034606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0105024880366579</v>
+        <v>0.04359668086960104</v>
       </c>
       <c r="C63">
-        <v>-0.05623005796827078</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002396986141648939</v>
+      </c>
+      <c r="D63">
+        <v>0.05815616545593541</v>
+      </c>
+      <c r="E63">
+        <v>0.02044279086924096</v>
+      </c>
+      <c r="F63">
+        <v>-0.004595545013765288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0209558150503601</v>
+        <v>0.1102918474595642</v>
       </c>
       <c r="C64">
-        <v>-0.1014229843343659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01172975517717314</v>
+      </c>
+      <c r="D64">
+        <v>0.04169148908167154</v>
+      </c>
+      <c r="E64">
+        <v>0.0228759362246361</v>
+      </c>
+      <c r="F64">
+        <v>-0.02627298407101063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03666443375138825</v>
+        <v>0.146243922936414</v>
       </c>
       <c r="C65">
-        <v>-0.1087191354845483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03209666800887973</v>
+      </c>
+      <c r="D65">
+        <v>-0.04202411796012271</v>
+      </c>
+      <c r="E65">
+        <v>0.002357530078793327</v>
+      </c>
+      <c r="F65">
+        <v>-0.038050831797595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03406423750537817</v>
+        <v>0.1277123474692252</v>
       </c>
       <c r="C66">
-        <v>-0.2058359730680891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01498147924128088</v>
+      </c>
+      <c r="D66">
+        <v>0.1413207314076126</v>
+      </c>
+      <c r="E66">
+        <v>0.06806591995261965</v>
+      </c>
+      <c r="F66">
+        <v>-0.03144399629464929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01414695796844556</v>
+        <v>0.06323895635112528</v>
       </c>
       <c r="C67">
-        <v>-0.06618198409763811</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003203219861385677</v>
+      </c>
+      <c r="D67">
+        <v>0.05525584436726008</v>
+      </c>
+      <c r="E67">
+        <v>0.01821956660377199</v>
+      </c>
+      <c r="F67">
+        <v>0.03260443654415602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01276769955481637</v>
+        <v>0.1160326262729321</v>
       </c>
       <c r="C68">
-        <v>-0.01996622577526916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02801959878052399</v>
+      </c>
+      <c r="D68">
+        <v>-0.2596459715531587</v>
+      </c>
+      <c r="E68">
+        <v>-0.08770769908152801</v>
+      </c>
+      <c r="F68">
+        <v>-0.004334183148141288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005348288323845454</v>
+        <v>0.03951364005683403</v>
       </c>
       <c r="C69">
-        <v>-0.03519752672495298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001227734132476889</v>
+      </c>
+      <c r="D69">
+        <v>0.007532170101289639</v>
+      </c>
+      <c r="E69">
+        <v>0.02338051317208218</v>
+      </c>
+      <c r="F69">
+        <v>0.0006905752859755895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002401760010300194</v>
+        <v>0.0632364472875952</v>
       </c>
       <c r="C70">
-        <v>-0.03499357097897884</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0284104348334769</v>
+      </c>
+      <c r="D70">
+        <v>0.02782943497480907</v>
+      </c>
+      <c r="E70">
+        <v>-0.04182985474819751</v>
+      </c>
+      <c r="F70">
+        <v>0.1868717403019002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01703762205480806</v>
+        <v>0.1351674802744105</v>
       </c>
       <c r="C71">
-        <v>-0.0223056484769031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03288604718736317</v>
+      </c>
+      <c r="D71">
+        <v>-0.2736079301446048</v>
+      </c>
+      <c r="E71">
+        <v>-0.09744927715700544</v>
+      </c>
+      <c r="F71">
+        <v>-0.01091828499837834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0325448909859638</v>
+        <v>0.1411155657880647</v>
       </c>
       <c r="C72">
-        <v>-0.1177916022991743</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02568696634421171</v>
+      </c>
+      <c r="D72">
+        <v>0.00103282002468404</v>
+      </c>
+      <c r="E72">
+        <v>0.04026938911681485</v>
+      </c>
+      <c r="F72">
+        <v>-0.03663134496852434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03038583920116338</v>
+        <v>0.2010692145569298</v>
       </c>
       <c r="C73">
-        <v>-0.2084695753436928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01305891380278771</v>
+      </c>
+      <c r="D73">
+        <v>0.01365948446018143</v>
+      </c>
+      <c r="E73">
+        <v>0.06414185736868101</v>
+      </c>
+      <c r="F73">
+        <v>-0.0398760680112072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01745383859012633</v>
+        <v>0.09478304888395536</v>
       </c>
       <c r="C74">
-        <v>-0.1152929337723207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01308289265995514</v>
+      </c>
+      <c r="D74">
+        <v>0.01795440176176014</v>
+      </c>
+      <c r="E74">
+        <v>0.04460772369861415</v>
+      </c>
+      <c r="F74">
+        <v>-0.05769701922739877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0370181552553734</v>
+        <v>0.1288620806650509</v>
       </c>
       <c r="C75">
-        <v>-0.1368402127646187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02761983567242822</v>
+      </c>
+      <c r="D75">
+        <v>0.03021619583976164</v>
+      </c>
+      <c r="E75">
+        <v>0.05887254376179205</v>
+      </c>
+      <c r="F75">
+        <v>-0.01986318954936526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003920637468290252</v>
+        <v>0.001292970059037675</v>
       </c>
       <c r="C76">
-        <v>-0.00454002951035109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003446285323948765</v>
+      </c>
+      <c r="D76">
+        <v>-0.001155848666129879</v>
+      </c>
+      <c r="E76">
+        <v>0.0001816168678113456</v>
+      </c>
+      <c r="F76">
+        <v>-0.001580620754804575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02064086978793293</v>
+        <v>0.08127439288538343</v>
       </c>
       <c r="C77">
-        <v>-0.1079481955030648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008453148850173607</v>
+      </c>
+      <c r="D77">
+        <v>0.1187348184906021</v>
+      </c>
+      <c r="E77">
+        <v>0.04096857400725664</v>
+      </c>
+      <c r="F77">
+        <v>-0.02686697509694552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04727377980517386</v>
+        <v>0.1017110224096569</v>
       </c>
       <c r="C78">
-        <v>-0.1256395850244305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03970301162773682</v>
+      </c>
+      <c r="D78">
+        <v>0.1163244465399974</v>
+      </c>
+      <c r="E78">
+        <v>0.07902055430687223</v>
+      </c>
+      <c r="F78">
+        <v>-0.04467051029780336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03145606620551312</v>
+        <v>0.1645980343297692</v>
       </c>
       <c r="C79">
-        <v>-0.1460937276648125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02182228236077036</v>
+      </c>
+      <c r="D79">
+        <v>0.01669777369133238</v>
+      </c>
+      <c r="E79">
+        <v>0.04740110769372416</v>
+      </c>
+      <c r="F79">
+        <v>-0.01473838578350462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004491920843164237</v>
+        <v>0.08155302305055478</v>
       </c>
       <c r="C80">
-        <v>-0.09461938359668429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0004248701092371282</v>
+      </c>
+      <c r="D80">
+        <v>0.05724522830560248</v>
+      </c>
+      <c r="E80">
+        <v>0.03595645215750785</v>
+      </c>
+      <c r="F80">
+        <v>0.02557671683959804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03861178042010424</v>
+        <v>0.1230331051676709</v>
       </c>
       <c r="C81">
-        <v>-0.1510988168757816</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03143333391282364</v>
+      </c>
+      <c r="D81">
+        <v>0.01507373163696218</v>
+      </c>
+      <c r="E81">
+        <v>0.05900889764987845</v>
+      </c>
+      <c r="F81">
+        <v>-0.01856301739545677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03260018873186771</v>
+        <v>0.1653173369179844</v>
       </c>
       <c r="C82">
-        <v>-0.1650103904226275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02400201839115778</v>
+      </c>
+      <c r="D82">
+        <v>0.004433072069321127</v>
+      </c>
+      <c r="E82">
+        <v>0.02814894337153077</v>
+      </c>
+      <c r="F82">
+        <v>-0.08072778978833405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01623689045862723</v>
+        <v>0.06136429758644257</v>
       </c>
       <c r="C83">
-        <v>-0.07597497291521359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003344939824905111</v>
+      </c>
+      <c r="D83">
+        <v>0.04965511012473787</v>
+      </c>
+      <c r="E83">
+        <v>0.006046973367258764</v>
+      </c>
+      <c r="F83">
+        <v>0.03253916693585039</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0238755605347692</v>
+        <v>0.05806254315237713</v>
       </c>
       <c r="C84">
-        <v>-0.07390065604111568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01101504721536118</v>
+      </c>
+      <c r="D84">
+        <v>0.065656358707766</v>
+      </c>
+      <c r="E84">
+        <v>0.007125105485106253</v>
+      </c>
+      <c r="F84">
+        <v>-0.005709066962659474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03381542410920158</v>
+        <v>0.1379234396258176</v>
       </c>
       <c r="C85">
-        <v>-0.1224077076510121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02743888357097678</v>
+      </c>
+      <c r="D85">
+        <v>0.01072812039413997</v>
+      </c>
+      <c r="E85">
+        <v>0.03941727174982112</v>
+      </c>
+      <c r="F85">
+        <v>-0.04755178941323859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007123584633726478</v>
+        <v>0.09630740735799133</v>
       </c>
       <c r="C86">
-        <v>-0.1092632992530291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006685746848642611</v>
+      </c>
+      <c r="D86">
+        <v>0.04058144649546812</v>
+      </c>
+      <c r="E86">
+        <v>0.2115244370808263</v>
+      </c>
+      <c r="F86">
+        <v>0.9087805110864212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03739262365427333</v>
+        <v>0.09591190137356126</v>
       </c>
       <c r="C87">
-        <v>-0.1111817451684575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02146301203297666</v>
+      </c>
+      <c r="D87">
+        <v>0.09213104314501698</v>
+      </c>
+      <c r="E87">
+        <v>-0.05338556038111408</v>
+      </c>
+      <c r="F87">
+        <v>-0.05014878623299217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01143326389517666</v>
+        <v>0.06089498950163442</v>
       </c>
       <c r="C88">
-        <v>-0.05828686918489671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002604998542779969</v>
+      </c>
+      <c r="D88">
+        <v>0.04995126171441593</v>
+      </c>
+      <c r="E88">
+        <v>0.02502240181819837</v>
+      </c>
+      <c r="F88">
+        <v>-0.01342687693701967</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0001915918107141965</v>
+        <v>0.1330797201496738</v>
       </c>
       <c r="C89">
-        <v>-0.04315416217556228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01027557768470926</v>
+      </c>
+      <c r="D89">
+        <v>-0.2509221642945369</v>
+      </c>
+      <c r="E89">
+        <v>-0.09070369509056526</v>
+      </c>
+      <c r="F89">
+        <v>0.006259654088310824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01763498492475156</v>
+        <v>0.1475199748149376</v>
       </c>
       <c r="C90">
-        <v>-0.02683260601746265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02865200012315656</v>
+      </c>
+      <c r="D90">
+        <v>-0.2662106490454685</v>
+      </c>
+      <c r="E90">
+        <v>-0.1119078220485765</v>
+      </c>
+      <c r="F90">
+        <v>0.004018378680432288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01897035078416573</v>
+        <v>0.1195377432186025</v>
       </c>
       <c r="C91">
-        <v>-0.09213621775457426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01808315262169324</v>
+      </c>
+      <c r="D91">
+        <v>-0.01163620348035361</v>
+      </c>
+      <c r="E91">
+        <v>0.05711078275063147</v>
+      </c>
+      <c r="F91">
+        <v>0.0008202757182643915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0002644371166591597</v>
+        <v>0.1465474789997967</v>
       </c>
       <c r="C92">
-        <v>-0.03863346271387537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02075201965903405</v>
+      </c>
+      <c r="D92">
+        <v>-0.2910791348528397</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025407639539076</v>
+      </c>
+      <c r="F92">
+        <v>0.01581943683246447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01176208219302492</v>
+        <v>0.15067112053107</v>
       </c>
       <c r="C93">
-        <v>-0.02935825548168393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02470203478647603</v>
+      </c>
+      <c r="D93">
+        <v>-0.2664426133517787</v>
+      </c>
+      <c r="E93">
+        <v>-0.07873833048321174</v>
+      </c>
+      <c r="F93">
+        <v>-0.002334472226080198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03568080710799552</v>
+        <v>0.1319248277105385</v>
       </c>
       <c r="C94">
-        <v>-0.1611394277414567</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0245570042842339</v>
+      </c>
+      <c r="D94">
+        <v>0.04356575569261714</v>
+      </c>
+      <c r="E94">
+        <v>0.05880538871825486</v>
+      </c>
+      <c r="F94">
+        <v>-0.03713536782137115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02170939676370319</v>
+        <v>0.1254668655637347</v>
       </c>
       <c r="C95">
-        <v>-0.1443595374822825</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004573458823605641</v>
+      </c>
+      <c r="D95">
+        <v>0.09117341886728345</v>
+      </c>
+      <c r="E95">
+        <v>0.04676021450734535</v>
+      </c>
+      <c r="F95">
+        <v>0.01091282964260477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9811501313293908</v>
+        <v>0.1038898848148533</v>
       </c>
       <c r="C96">
-        <v>-0.1717219746030516</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9881118371257656</v>
+      </c>
+      <c r="D96">
+        <v>-0.03842984458305496</v>
+      </c>
+      <c r="E96">
+        <v>0.05652216023086739</v>
+      </c>
+      <c r="F96">
+        <v>-0.04319623612862931</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.001271219599215892</v>
+        <v>0.1913778050244919</v>
       </c>
       <c r="C97">
-        <v>-0.1764787746212252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008691322375434879</v>
+      </c>
+      <c r="D97">
+        <v>-0.01685145899577179</v>
+      </c>
+      <c r="E97">
+        <v>0.01532586479563565</v>
+      </c>
+      <c r="F97">
+        <v>0.09290915823305464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02168680679887695</v>
+        <v>0.2062325136678596</v>
       </c>
       <c r="C98">
-        <v>-0.1967816507816887</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.00758536176660356</v>
+      </c>
+      <c r="D98">
+        <v>0.007550707897543587</v>
+      </c>
+      <c r="E98">
+        <v>-0.08598761441630869</v>
+      </c>
+      <c r="F98">
+        <v>0.09358795716480162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.00292950253054653</v>
+        <v>0.05584620607172554</v>
       </c>
       <c r="C99">
-        <v>-0.0570475033144409</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004353732947969623</v>
+      </c>
+      <c r="D99">
+        <v>0.03902696861628758</v>
+      </c>
+      <c r="E99">
+        <v>0.02405993152192658</v>
+      </c>
+      <c r="F99">
+        <v>-0.001185646244582807</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.006134952975821248</v>
+        <v>0.1270382083328841</v>
       </c>
       <c r="C100">
-        <v>-0.1419992851610361</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05263586464340012</v>
+      </c>
+      <c r="D100">
+        <v>0.3502622617824655</v>
+      </c>
+      <c r="E100">
+        <v>-0.8867154359021395</v>
+      </c>
+      <c r="F100">
+        <v>0.1368326586286729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01220489282492337</v>
+        <v>0.02687453214076389</v>
       </c>
       <c r="C101">
-        <v>-0.03071920677223606</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008207802658915238</v>
+      </c>
+      <c r="D101">
+        <v>0.03315099171659846</v>
+      </c>
+      <c r="E101">
+        <v>0.01109882952767255</v>
+      </c>
+      <c r="F101">
+        <v>0.01200108830680779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
